--- a/server/class-excel/841109222-1.xlsx
+++ b/server/class-excel/841109222-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Lớp 841109222-1</t>
   </si>
@@ -29,7 +29,7 @@
     <t>E-mail: thanhsang@sgu.edu.vn</t>
   </si>
   <si>
-    <t>Ngày tạo file: ngày 5 tháng 5, 2023</t>
+    <t>Ngày tạo file: ngày 7 tháng 5, 2023</t>
   </si>
   <si>
     <t>Thông tin thí sinh</t>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>DCT</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
   </si>
   <si>
     <t>&lt;=0</t>
@@ -653,8 +656,8 @@
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -679,15 +682,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -695,7 +698,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -703,7 +706,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -711,7 +714,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -727,7 +730,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -735,7 +738,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -743,7 +746,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -751,7 +754,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -759,7 +762,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
